--- a/branches/pt-branch/StructureDefinition-DefinedMed.xlsx
+++ b/branches/pt-branch/StructureDefinition-DefinedMed.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="254">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-20T14:38:33+00:00</t>
+    <t>2022-10-06T17:30:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -277,7 +277,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -663,6 +663,10 @@
   </si>
   <si>
     <t>Medication.ingredient.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -1131,39 +1135,39 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="38.25" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="20.1484375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="20.15234375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="52.78125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="55.390625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="48.03515625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="55.39453125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="48.0390625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="195.5390625" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="98.9296875" customWidth="true" bestFit="true"/>
@@ -3303,13 +3307,13 @@
         <v>74</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>85</v>
+        <v>205</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3360,7 +3364,7 @@
         <v>74</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>75</v>
@@ -3378,7 +3382,7 @@
         <v>74</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>74</v>
@@ -3389,7 +3393,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3415,10 +3419,10 @@
         <v>128</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M21" t="s" s="2">
         <v>146</v>
@@ -3471,7 +3475,7 @@
         <v>74</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>75</v>
@@ -3489,7 +3493,7 @@
         <v>74</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>74</v>
@@ -3500,11 +3504,11 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -3526,10 +3530,10 @@
         <v>128</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M22" t="s" s="2">
         <v>146</v>
@@ -3584,7 +3588,7 @@
         <v>74</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>75</v>
@@ -3613,7 +3617,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3636,17 +3640,17 @@
         <v>74</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>74</v>
@@ -3695,7 +3699,7 @@
         <v>74</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>83</v>
@@ -3713,18 +3717,18 @@
         <v>164</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3747,17 +3751,17 @@
         <v>74</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>74</v>
@@ -3806,7 +3810,7 @@
         <v>74</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>75</v>
@@ -3824,7 +3828,7 @@
         <v>74</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>74</v>
@@ -3835,7 +3839,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3861,10 +3865,10 @@
         <v>194</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3915,7 +3919,7 @@
         <v>74</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>75</v>
@@ -3930,7 +3934,7 @@
         <v>95</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>197</v>
@@ -3939,12 +3943,12 @@
         <v>74</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3970,10 +3974,10 @@
         <v>199</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4024,7 +4028,7 @@
         <v>74</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>75</v>
@@ -4042,7 +4046,7 @@
         <v>180</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>74</v>
@@ -4053,7 +4057,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4076,13 +4080,13 @@
         <v>74</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>85</v>
+        <v>205</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4133,7 +4137,7 @@
         <v>74</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>75</v>
@@ -4151,7 +4155,7 @@
         <v>74</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>74</v>
@@ -4162,7 +4166,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4188,10 +4192,10 @@
         <v>128</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M28" t="s" s="2">
         <v>146</v>
@@ -4244,7 +4248,7 @@
         <v>74</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>75</v>
@@ -4262,7 +4266,7 @@
         <v>74</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>74</v>
@@ -4273,11 +4277,11 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4299,10 +4303,10 @@
         <v>128</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M29" t="s" s="2">
         <v>146</v>
@@ -4357,7 +4361,7 @@
         <v>74</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>75</v>
@@ -4386,7 +4390,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4409,13 +4413,13 @@
         <v>74</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>85</v>
+        <v>205</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4466,7 +4470,7 @@
         <v>74</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>75</v>
@@ -4490,12 +4494,12 @@
         <v>74</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4518,13 +4522,13 @@
         <v>74</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4575,7 +4579,7 @@
         <v>74</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>75</v>
@@ -4593,13 +4597,13 @@
         <v>180</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>

--- a/branches/pt-branch/StructureDefinition-DefinedMed.xlsx
+++ b/branches/pt-branch/StructureDefinition-DefinedMed.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-06T17:30:01+00:00</t>
+    <t>2022-10-06T17:31:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
